--- a/data_input/00_data_sources.xlsx
+++ b/data_input/00_data_sources.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\gits\covid_canada_excess\data_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikep\OneDrive\Documents\gits\covid_canada_excess\data_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CE7D90-B71A-401A-A752-EEF539CA1BD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" xr2:uid="{EA7DF061-FA88-419E-8E82-BCF599E8EFD2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Population projections</t>
   </si>
@@ -61,12 +60,48 @@
   </si>
   <si>
     <t>confirmed deaths by age Alberta</t>
+  </si>
+  <si>
+    <t>https://statistique.quebec.ca/fr/document/nombre-hebdomadaire-de-deces-au-quebec/tableau/deces-par-semaine-selon-le-groupe-dage-quebec#tri_gp=950</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>1710005701_databaseLoadingData.csv</t>
+  </si>
+  <si>
+    <t>1710000501_databaseLoadingData.csv</t>
+  </si>
+  <si>
+    <t>13100768-eng.zip</t>
+  </si>
+  <si>
+    <t>graph_2-1.a_page_age_et_sexe_evol_des_décès.csv</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/data/stats/covid-19-alberta-statistics-summary-data.csv</t>
+  </si>
+  <si>
+    <t>daily deaths alberta</t>
+  </si>
+  <si>
+    <t>covid-19-alberta-statistics-summary-data.csv</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/stats/covid-19-alberta-statistics.htm#data-export</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,78 +457,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92EE360-8B7A-4C72-A4EC-197E45054192}">
-  <dimension ref="A2:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{F12E5F32-ECD2-4D96-BC62-854817A6DE7F}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{5E9A59F3-CC18-40C9-BA32-3A34B1DB2AD9}"/>
-    <hyperlink ref="B5" r:id="rId3" location="tri_gp=781" xr:uid="{CB1B17B2-D0A3-4529-85F0-5C7BA0E2DBBB}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{7FE12A95-558C-4632-A180-7F74010E7C5A}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{C89532A0-5F7D-4435-87F4-21F8E9B4B119}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3" location="tri_gp=781"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6" location="tri_gp=950"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="D14" r:id="rId8" location="data-export"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/data_input/00_data_sources.xlsx
+++ b/data_input/00_data_sources.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Population projections</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=1710005701</t>
   </si>
   <si>
-    <t>Population estimates</t>
-  </si>
-  <si>
     <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=1710000501</t>
   </si>
   <si>
@@ -96,6 +90,30 @@
   </si>
   <si>
     <t>https://www.alberta.ca/stats/covid-19-alberta-statistics.htm#data-export</t>
+  </si>
+  <si>
+    <t>Population projections Canada</t>
+  </si>
+  <si>
+    <t>Population estimates Canada</t>
+  </si>
+  <si>
+    <t>Population projections Quebec</t>
+  </si>
+  <si>
+    <t>Population estimates Quebec</t>
+  </si>
+  <si>
+    <t>https://statistique.quebec.ca/en/document/population-and-age-and-sex-structure-quebec/tableau/population-of-quebec-by-age-and-sex#tri_pop=10</t>
+  </si>
+  <si>
+    <t>https://statistique.quebec.ca/en/document/population-projections-quebec</t>
+  </si>
+  <si>
+    <t>QC-age-sexe.xlsx</t>
+  </si>
+  <si>
+    <t>PopGrAS_Qc_majA2021.xlsx</t>
   </si>
 </sst>
 </file>
@@ -458,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -473,94 +491,116 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -573,8 +613,10 @@
     <hyperlink ref="C12" r:id="rId6" location="tri_gp=950"/>
     <hyperlink ref="C14" r:id="rId7"/>
     <hyperlink ref="D14" r:id="rId8" location="data-export"/>
+    <hyperlink ref="C17" r:id="rId9" location="tri_pop=10"/>
+    <hyperlink ref="C16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/data_input/00_data_sources.xlsx
+++ b/data_input/00_data_sources.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=1710005701</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>PopGrAS_Qc_majA2021.xlsx</t>
+  </si>
+  <si>
+    <t>DecesSemaine_QC_GrAge.xlsx</t>
   </si>
 </sst>
 </file>
@@ -478,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -525,6 +528,9 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>

--- a/data_input/00_data_sources.xlsx
+++ b/data_input/00_data_sources.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=1710005701</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>DecesSemaine_QC_GrAge.xlsx</t>
+  </si>
+  <si>
+    <t>https://covid-19.ontario.ca/</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -562,6 +565,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -621,8 +627,9 @@
     <hyperlink ref="D14" r:id="rId8" location="data-export"/>
     <hyperlink ref="C17" r:id="rId9" location="tri_pop=10"/>
     <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C9" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>